--- a/index/test2.xlsx
+++ b/index/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12275" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="name1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>萨达2</t>
   </si>
   <si>
-    <t>大声道3</t>
+    <t>大声道5</t>
   </si>
   <si>
     <t>name</t>
@@ -1024,13 +1024,13 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="20.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="20.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1077,11 +1077,11 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1139,7 +1139,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
